--- a/countries/countries.xlsx
+++ b/countries/countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44739\Desktop\The World Blueprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44739\Desktop\The World Blueprint\fact vs fiction\countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F35EA3-8009-4688-B7E7-2AA6F0C2A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02E3C9-A745-4FFC-BD75-59F1C1E7DD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC8EF966-1A08-4E05-A262-6FD8005B1731}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Subject</t>
   </si>
@@ -44,21 +44,12 @@
     <t>Statement 1</t>
   </si>
   <si>
-    <t>Answer 1</t>
-  </si>
-  <si>
     <t>Statement 2</t>
   </si>
   <si>
-    <t>Answer 2</t>
-  </si>
-  <si>
     <t>Statement 3</t>
   </si>
   <si>
-    <t>Answer 3</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Tanzania has the largest wildlife migration on Earth.</t>
-  </si>
-  <si>
     <t>Fact! The Serengeti migration involves 1.5 million wildebeest.</t>
   </si>
   <si>
@@ -383,12 +371,6 @@
     <t>Fact! China's population is projected to cut in halve by 2100.</t>
   </si>
   <si>
-    <t>Fact! It has a population of around 17million.</t>
-  </si>
-  <si>
-    <t>Fact! Only Hollywood and Bollywood resprectively are larger.</t>
-  </si>
-  <si>
     <t>No African country has lost more AFCON finals than Nigeria.</t>
   </si>
   <si>
@@ -398,63 +380,27 @@
     <t>Fiction! The Pound Sterling was introduced 1200 years ago and is the oldest.</t>
   </si>
   <si>
-    <t>Fiction! Karachi is the largest (around 18million).</t>
-  </si>
-  <si>
-    <t>Russia's population is Declining.</t>
-  </si>
-  <si>
-    <t>Fact! Due to low birth birth rates from fallen soldiers in WW2.</t>
-  </si>
-  <si>
     <t>Mexico City is sinking.</t>
   </si>
   <si>
     <t>Fact! Despite their 17 appearances, Mexico have never advanced past the QF stage.</t>
   </si>
   <si>
-    <t>Mexico have particiapted in the most FIFA World Cups without winning it.</t>
-  </si>
-  <si>
-    <t>Mexico has the most world heritage sites in the Americas</t>
-  </si>
-  <si>
     <t>Fact! It has 35 UNESCO sites in total.</t>
   </si>
   <si>
     <t>Fact! It produces 4 million cars on average per year.</t>
   </si>
   <si>
-    <t>Fiction! Although it was still built very quickly (within 2 weeks)</t>
-  </si>
-  <si>
     <t>Russia has a higher population than Bangladesh.</t>
   </si>
   <si>
-    <t>Fiction! Bangladesh holds more people despite being x115 smaller in size.</t>
-  </si>
-  <si>
-    <t>Fact! Bangladesh holds more people despite being x115 smaller in size.</t>
-  </si>
-  <si>
     <t>Bangladesh has a higher population than Russia.</t>
   </si>
   <si>
     <t>Fiction! It only became capital in 1971 when Bangladesh gained independence.</t>
   </si>
   <si>
-    <t>Fiction! The Philippines contains 7,641 islands, 2nd only to Indonesia (17k+)</t>
-  </si>
-  <si>
-    <t>The deer is the national animal in The Philippines.</t>
-  </si>
-  <si>
-    <t>Fiction! The national animal is Carabao</t>
-  </si>
-  <si>
-    <t>The Philippines was once colonised by Spain.</t>
-  </si>
-  <si>
     <t>Fact! From 1565 to 1898.</t>
   </si>
   <si>
@@ -464,24 +410,6 @@
     <t>Fact! It exports around 38% of the world's cashew nuts.</t>
   </si>
   <si>
-    <t>Fiction! Despite being the capital city, Ho Chi Minh City holds more people (9.5 million)</t>
-  </si>
-  <si>
-    <t>Fact! 12x 30-day months, plus an additional 5-day month (6 on leap year)</t>
-  </si>
-  <si>
-    <t>Fact! Abyssinia was the historical name for the Ethiopian Empire</t>
-  </si>
-  <si>
-    <t>Fiction! Ethiopia has 133 million inhabitants, 2nd only to Nigeria (234 million)</t>
-  </si>
-  <si>
-    <t>Indonesia is the world's largest Islamic Nation.</t>
-  </si>
-  <si>
-    <t>Fact! Indonesia contains 242 million Muslims, 13% of all  on Earth.</t>
-  </si>
-  <si>
     <t>Jakarta is sinking.</t>
   </si>
   <si>
@@ -494,9 +422,6 @@
     <t>Indonesia has the most total volcanoes in the world.</t>
   </si>
   <si>
-    <t>Fiction! It ranks third after the US and Russia (but has the most active volacnoes).</t>
-  </si>
-  <si>
     <t>The Suez Canal is a natural waterway.</t>
   </si>
   <si>
@@ -524,36 +449,18 @@
     <t>Fact! Iran is around 3.8x larger than Iraq, and is the 17th largest country on Earth.</t>
   </si>
   <si>
-    <t>Fact! It's the only South-East Asian country to do so.</t>
-  </si>
-  <si>
-    <t>The Elephant is the national animal in Thailand.</t>
-  </si>
-  <si>
-    <t>Fact! Elephants are considered as sacred in Buddhism, the main religion in Thailand.</t>
-  </si>
-  <si>
     <t>Fact! French is the official language in the DRC.</t>
   </si>
   <si>
-    <t>DR Congo is large in size than France.</t>
-  </si>
-  <si>
     <t>Fact! The DRC is around 4.2x larger than France, and is the 11th largest country on Earth.</t>
   </si>
   <si>
-    <t>The Scuderia Ferrari F1 Team's headquarters is based in Monza.</t>
-  </si>
-  <si>
     <t>Fiction! It is located in Maranello.</t>
   </si>
   <si>
     <t>Italy shares a border with Germany.</t>
   </si>
   <si>
-    <t>Fiction! Switzerland and Austria are sandwitched between the two nations.</t>
-  </si>
-  <si>
     <t>Italy is larger in size than the UK.</t>
   </si>
   <si>
@@ -578,54 +485,12 @@
     <t>South Korea has more than 1,000 islands.</t>
   </si>
   <si>
-    <t>Fiction! The Japanese's Imperial Monarchy dates back to 660 AD.</t>
-  </si>
-  <si>
-    <t>Manchester City have won the most amount of Premier League titles.</t>
-  </si>
-  <si>
-    <t>Fiction! Manchester United have won the most with 13 PL titles.</t>
-  </si>
-  <si>
-    <t>The London Tube is the oldest underground railway network in the world.</t>
-  </si>
-  <si>
-    <t>The British Monarch is the oldest one in the world.</t>
-  </si>
-  <si>
-    <t>Fact! The London Undergound first opened in 1863.</t>
-  </si>
-  <si>
     <t>Fact! It was coated in yellow from 1892 to 1898.</t>
   </si>
   <si>
-    <t>Fiction! Mozambique is sandwitched between the two nations.</t>
-  </si>
-  <si>
-    <t>The Spanish Empire once colonised Brazil</t>
-  </si>
-  <si>
-    <t>Fiction! It was the Portugese Empire which colonised Brazil.</t>
-  </si>
-  <si>
-    <t>South Africa currently has multiple capital cities.</t>
-  </si>
-  <si>
-    <t>Fact! It has 3 capital cities: Cape Town, Pretoria, and Bloemfontein.</t>
-  </si>
-  <si>
-    <t>South Africa is large in size than Germany.</t>
-  </si>
-  <si>
     <t>Fact! South Africa is around 3.41x larger than Germany.</t>
   </si>
   <si>
-    <t>South Africa has more colours on its flag than any other country.</t>
-  </si>
-  <si>
-    <t>Fiction! Belize has 12 colours on its flag.</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -666,6 +531,153 @@
   </si>
   <si>
     <t>Fiction! Canberra is the capital.</t>
+  </si>
+  <si>
+    <t>Fact1</t>
+  </si>
+  <si>
+    <t>Fiction1</t>
+  </si>
+  <si>
+    <t>Fact2</t>
+  </si>
+  <si>
+    <t>Fiction2</t>
+  </si>
+  <si>
+    <t>Fact3</t>
+  </si>
+  <si>
+    <t>Fiction3</t>
+  </si>
+  <si>
+    <t>Fact! Only Hollywood and Bollywood respectively are larger.</t>
+  </si>
+  <si>
+    <t>Fact! It has a population of around 17 million.</t>
+  </si>
+  <si>
+    <t>Fiction! Karachi is the largest (around 18 million).</t>
+  </si>
+  <si>
+    <t>Fiction! Bangladesh holds more people despite being 115x smaller in size.</t>
+  </si>
+  <si>
+    <t>Russia's population is declining.</t>
+  </si>
+  <si>
+    <t>Fact! Due to low birth rates from fallen soldiers in WW2.</t>
+  </si>
+  <si>
+    <t>Mexico has participated in the most FIFA World Cups without winning it.</t>
+  </si>
+  <si>
+    <t>Mexico has the most world heritage sites in the Americas.</t>
+  </si>
+  <si>
+    <t>Fiction! Although it was still built very quickly (within 2 weeks).</t>
+  </si>
+  <si>
+    <t>Fact! Bangladesh holds more people despite being 115x smaller in size.</t>
+  </si>
+  <si>
+    <t>The deer is the national animal in the Philippines.</t>
+  </si>
+  <si>
+    <t>Fiction! The national animal is Carabao.</t>
+  </si>
+  <si>
+    <t>Fiction! The Philippines contains 7,641 islands, 2nd only to Indonesia (17k+).</t>
+  </si>
+  <si>
+    <t>The Philippines was once colonized by Spain.</t>
+  </si>
+  <si>
+    <t>Fiction! Despite being the capital, Ho Chi Minh City holds more people (9.5 million).</t>
+  </si>
+  <si>
+    <t>Fact! 12x 30-day months, plus an additional 5-day month (6 on leap year).</t>
+  </si>
+  <si>
+    <t>Fact! Abyssinia was the historical name for the Ethiopian Empire.</t>
+  </si>
+  <si>
+    <t>Fiction! Ethiopia has 133 million inhabitants, 2nd only to Nigeria (234 million).</t>
+  </si>
+  <si>
+    <t>Indonesia is the world's largest Islamic nation.</t>
+  </si>
+  <si>
+    <t>Fact! Indonesia contains 242 million Muslims, 13% of all on Earth.</t>
+  </si>
+  <si>
+    <t>Fiction! It ranks third after the US and Russia (but has the most active volcanoes).</t>
+  </si>
+  <si>
+    <t>Fact! It's the only Southeast Asian country to do so.</t>
+  </si>
+  <si>
+    <t>The elephant is the national animal in Thailand.</t>
+  </si>
+  <si>
+    <t>Fact! Elephants are considered sacred in Buddhism.</t>
+  </si>
+  <si>
+    <t>DR Congo is larger in size than France.</t>
+  </si>
+  <si>
+    <t>The Scuderia Ferrari F1 Team's HQ is based in Monza.</t>
+  </si>
+  <si>
+    <t>Fiction! Switzerland and Austria are sandwiched between the two nations.</t>
+  </si>
+  <si>
+    <t>The British Monarch is the oldest in the world.</t>
+  </si>
+  <si>
+    <t>Fiction! The Japanese Imperial Monarchy dates back to 660 AD.</t>
+  </si>
+  <si>
+    <t>The London Tube is the oldest underground railway.</t>
+  </si>
+  <si>
+    <t>Fact! The London Underground first opened in 1863.</t>
+  </si>
+  <si>
+    <t>Manchester City have won the most Premier League titles.</t>
+  </si>
+  <si>
+    <t>Fiction! Manchester United have won the most, with 13 PL titles.</t>
+  </si>
+  <si>
+    <t>Tanzania has the largest wildlife migration.</t>
+  </si>
+  <si>
+    <t>Fiction! Mozambique is sandwiched between the two nations.</t>
+  </si>
+  <si>
+    <t>The Spanish Empire once colonized Brazil.</t>
+  </si>
+  <si>
+    <t>Fiction! It was the Portuguese Empire which colonized Brazil.</t>
+  </si>
+  <si>
+    <t>South Africa currently has multiple capitals.</t>
+  </si>
+  <si>
+    <t>Fact! It has 3 capital cities: Cape Town, Pretoria, Bloemfontein.</t>
+  </si>
+  <si>
+    <t>South Africa is larger in size than Germany.</t>
+  </si>
+  <si>
+    <t>South Africa has the most colors on its flag.</t>
+  </si>
+  <si>
+    <t>Fiction! Belize has 12 colors on its flag.</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -712,13 +724,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,6 +747,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED17150-1C3A-8119-093C-C7D411FD5267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="10424160"/>
+          <a:ext cx="1543050" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300CD3E-164E-AE45-001C-BAB7C314757A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="10058400"/>
+          <a:ext cx="1543050" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733EC61B-8262-04EF-745C-F833F9C7F178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="9692640"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC0BD56-F56A-2E88-9A51-E3ABD3D9008E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="9326880"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740B8977-6CF4-3EAE-481D-66AFEDDCC9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="8961120"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9521200C-9E80-2772-7D72-250DA5D7278D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="8595360"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C5B4CA-03F5-61A1-19C3-B98148B82B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="8229600"/>
+          <a:ext cx="1543050" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB66579D-A41E-54BE-02C2-6BE2A1916665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="7863840"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF235EF6-BC80-1EE3-3321-E150C5847156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="7498080"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77702C6-675B-CFA6-64E9-925D50AB8F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="7132320"/>
+          <a:ext cx="1543050" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5FDA2E-1410-C90A-E3DB-7F05F5863520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="6766560"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167EA593-ED7F-4F2B-AE2D-A7923B7ECE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="6400800"/>
+          <a:ext cx="1543050" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FC8B70-D689-D8EC-2FF2-EFE84161859C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="6035040"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABA8168-EDE7-6C83-6665-2F5B11879237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="5669280"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44587365-9F53-09D7-E1FA-75B7A0AF5E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="5303520"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E824562-553E-44C9-7BF7-6F26F0216CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="4937760"/>
+          <a:ext cx="1543050" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5096AE22-E616-D7B3-1B3F-34049388812B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="4572000"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923B9B94-4E68-AEE5-F3EA-B04F76F3943B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="4206240"/>
+          <a:ext cx="1543050" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C2F204-9516-6496-2F62-818E6F76E2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="3840480"/>
+          <a:ext cx="1543050" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B99D0BF-F27A-65C2-89E0-A0C844427970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="3474720"/>
+          <a:ext cx="1543050" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E707FCB5-33F6-08F3-F58F-16EBB9EB6D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="3108960"/>
+          <a:ext cx="1543050" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546C9FAB-7112-0C05-A847-CFEF478DDC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="2743200"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2392F52-9227-22BD-DB46-550767395D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="2377440"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B75831A-3070-D377-F165-558FF66ED5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="2011680"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15949E9-993A-1969-FAD5-219E49CE1225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="1645920"/>
+          <a:ext cx="1543050" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F502DAE8-BE53-D03D-2117-2329FD9F6223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="1280160"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E6386C-5BC9-46B7-2BC7-015D1D83B164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="914400"/>
+          <a:ext cx="1543050" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36400E9F-4DDA-8217-646C-07EF5D042756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="548640"/>
+          <a:ext cx="1543050" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415C5152-EAB1-5B09-F6CF-40B59AE22A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26388060" y="182880"/>
+          <a:ext cx="1543050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,24 +2347,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE15E8-303E-4237-A1ED-3CA08FA56CCA}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" customWidth="1"/>
-    <col min="7" max="7" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="6" max="7" width="40.77734375" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" customWidth="1"/>
+    <col min="9" max="11" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,689 +2372,878 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>120</v>
-      </c>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>